--- a/xlsx/軍事_intext.xlsx
+++ b/xlsx/軍事_intext.xlsx
@@ -29,7 +29,7 @@
     <t>战争</t>
   </si>
   <si>
-    <t>政策_政策_智庫_軍事</t>
+    <t>体育运动_体育运动_欧洲议会_軍事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B</t>
